--- a/src/test/resources/dataSource/excel/demo.xlsx
+++ b/src/test/resources/dataSource/excel/demo.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14010" windowHeight="5715" activeTab="1"/>
+    <workbookView windowWidth="14010" windowHeight="3855" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="登陆页面" sheetId="1" r:id="rId1"/>
     <sheet name="DemoPage" sheetId="2" r:id="rId2"/>
-    <sheet name="新建项目" sheetId="3" r:id="rId3"/>
-    <sheet name="新建项目-数据源" sheetId="4" r:id="rId4"/>
+    <sheet name="LoginPage" sheetId="3" r:id="rId3"/>
+    <sheet name="新建项目" sheetId="4" r:id="rId4"/>
     <sheet name="测试用例" sheetId="5" r:id="rId5"/>
     <sheet name="类型" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -76,6 +76,9 @@
     <t>admin</t>
   </si>
   <si>
+    <t>phone</t>
+  </si>
+  <si>
     <t>项目名称</t>
   </si>
   <si>
@@ -97,7 +100,31 @@
     <t>保存按钮</t>
   </si>
   <si>
-    <t>${projectName?default('demo')}</t>
+    <t>页面</t>
+  </si>
+  <si>
+    <t>元素</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>登陆页面</t>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>新建项目</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
   <si>
     <t>freemarker</t>
@@ -106,49 +133,22 @@
     <t>simple</t>
   </si>
   <si>
+    <t>下拉列表</t>
+  </si>
+  <si>
     <t>callback</t>
   </si>
   <si>
+    <t>超链接文本</t>
+  </si>
+  <si>
     <t>encrypt</t>
   </si>
   <si>
+    <t>超链接部分文本</t>
+  </si>
+  <si>
     <t>properties</t>
-  </si>
-  <si>
-    <t>页面</t>
-  </si>
-  <si>
-    <t>元素</t>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>登陆页面</t>
-  </si>
-  <si>
-    <t>输入</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>新建项目</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>下拉列表</t>
-  </si>
-  <si>
-    <t>超链接文本</t>
-  </si>
-  <si>
-    <t>超链接部分文本</t>
   </si>
   <si>
     <t>Xpath</t>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -304,14 +304,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,6 +476,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -489,30 +513,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +650,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,7 +686,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -704,19 +704,19 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,7 +734,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,7 +746,7 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,7 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -788,12 +788,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1151,7 +1154,7 @@
     <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7"/>
+    <col min="5" max="5" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1167,7 +1170,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1184,7 +1187,7 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1201,7 +1204,7 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1269,14 +1272,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 C4">
-      <formula1>类型!$A:$A</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示信息" prompt="元素类型" sqref="B2">
       <formula1>"文本,按钮,下拉列表"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"ID,NAME,标签名称,XPath"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 C4">
+      <formula1>类型!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1289,8 +1292,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1306,7 +1309,7 @@
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1333,6 +1336,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9">
+        <v>18211146528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -1347,7 +1411,7 @@
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1363,13 +1427,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1378,12 +1442,12 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1394,7 +1458,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -1405,7 +1469,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -1416,7 +1480,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1427,7 +1491,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -1447,105 +1511,6 @@
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="35.25" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1569,27 +1534,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1598,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1607,63 +1572,63 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1693,16 +1658,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1713,10 +1678,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1724,26 +1689,26 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1">
